--- a/Tatulya/create cards/Data_to_create_10.07.2024.xlsx
+++ b/Tatulya/create cards/Data_to_create_10.07.2024.xlsx
@@ -1774,7 +1774,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1803,7 +1803,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1849,10 +1849,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1932,10 +1928,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BS11"/>
+  <dimension ref="A1:BS14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BS11" activeCellId="0" sqref="BS11"/>
+      <selection pane="topLeft" activeCell="Y14" activeCellId="0" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3757,6 +3753,7 @@
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Tatulya/images/A4/set3/Video_DTF.mp4</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="16">
     <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AY2:AZ3" type="decimal">
@@ -3870,7 +3867,7 @@
       <c r="A2" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3878,7 +3875,7 @@
       <c r="A3" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3886,7 +3883,7 @@
       <c r="A4" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3894,7 +3891,7 @@
       <c r="A5" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3902,7 +3899,7 @@
       <c r="A6" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3910,7 +3907,7 @@
       <c r="A7" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3918,7 +3915,7 @@
       <c r="A8" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3926,7 +3923,7 @@
       <c r="A9" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3934,7 +3931,7 @@
       <c r="A10" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3942,7 +3939,7 @@
       <c r="A11" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3950,7 +3947,7 @@
       <c r="A12" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3958,7 +3955,7 @@
       <c r="A13" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3966,7 +3963,7 @@
       <c r="A14" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3974,7 +3971,7 @@
       <c r="A15" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3982,7 +3979,7 @@
       <c r="A16" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3990,7 +3987,7 @@
       <c r="A17" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3998,7 +3995,7 @@
       <c r="A18" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4006,7 +4003,7 @@
       <c r="A19" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4014,7 +4011,7 @@
       <c r="A20" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4022,7 +4019,7 @@
       <c r="A21" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4030,7 +4027,7 @@
       <c r="A22" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4038,7 +4035,7 @@
       <c r="A23" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4046,7 +4043,7 @@
       <c r="A24" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4054,7 +4051,7 @@
       <c r="A25" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4062,7 +4059,7 @@
       <c r="A26" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4070,7 +4067,7 @@
       <c r="A27" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4078,7 +4075,7 @@
       <c r="A28" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4086,7 +4083,7 @@
       <c r="A29" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4094,7 +4091,7 @@
       <c r="A30" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4102,7 +4099,7 @@
       <c r="A31" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4110,7 +4107,7 @@
       <c r="A32" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4118,7 +4115,7 @@
       <c r="A33" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4126,7 +4123,7 @@
       <c r="A34" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4134,7 +4131,7 @@
       <c r="A35" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4142,7 +4139,7 @@
       <c r="A36" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4150,7 +4147,7 @@
       <c r="A37" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4158,7 +4155,7 @@
       <c r="A38" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4166,7 +4163,7 @@
       <c r="A39" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4174,7 +4171,7 @@
       <c r="A40" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4182,7 +4179,7 @@
       <c r="A41" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4190,7 +4187,7 @@
       <c r="A42" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4198,7 +4195,7 @@
       <c r="A43" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4206,7 +4203,7 @@
       <c r="A44" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4214,7 +4211,7 @@
       <c r="A45" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4222,7 +4219,7 @@
       <c r="A46" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4230,7 +4227,7 @@
       <c r="A47" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4238,7 +4235,7 @@
       <c r="A48" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4246,7 +4243,7 @@
       <c r="A49" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4254,7 +4251,7 @@
       <c r="A50" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4262,7 +4259,7 @@
       <c r="A51" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4270,7 +4267,7 @@
       <c r="A52" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4278,7 +4275,7 @@
       <c r="A53" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4286,7 +4283,7 @@
       <c r="A54" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4294,7 +4291,7 @@
       <c r="A55" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4302,7 +4299,7 @@
       <c r="A56" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4310,7 +4307,7 @@
       <c r="A57" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4318,7 +4315,7 @@
       <c r="A58" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4326,7 +4323,7 @@
       <c r="A59" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4334,7 +4331,7 @@
       <c r="A60" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4342,7 +4339,7 @@
       <c r="A61" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4350,7 +4347,7 @@
       <c r="A62" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4358,7 +4355,7 @@
       <c r="A63" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4366,7 +4363,7 @@
       <c r="A64" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4374,7 +4371,7 @@
       <c r="A65" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4382,7 +4379,7 @@
       <c r="A66" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4390,7 +4387,7 @@
       <c r="A67" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4398,7 +4395,7 @@
       <c r="A68" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4406,7 +4403,7 @@
       <c r="A69" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4414,7 +4411,7 @@
       <c r="A70" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4422,7 +4419,7 @@
       <c r="A71" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4430,7 +4427,7 @@
       <c r="A72" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4438,7 +4435,7 @@
       <c r="A73" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4446,7 +4443,7 @@
       <c r="A74" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4454,7 +4451,7 @@
       <c r="A75" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4462,7 +4459,7 @@
       <c r="A76" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4470,7 +4467,7 @@
       <c r="A77" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4478,7 +4475,7 @@
       <c r="A78" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4486,7 +4483,7 @@
       <c r="A79" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4494,7 +4491,7 @@
       <c r="A80" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4502,7 +4499,7 @@
       <c r="A81" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4510,7 +4507,7 @@
       <c r="A82" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4518,7 +4515,7 @@
       <c r="A83" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4526,7 +4523,7 @@
       <c r="A84" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4534,7 +4531,7 @@
       <c r="A85" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4542,7 +4539,7 @@
       <c r="A86" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4550,7 +4547,7 @@
       <c r="A87" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4558,7 +4555,7 @@
       <c r="A88" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4566,7 +4563,7 @@
       <c r="A89" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4574,7 +4571,7 @@
       <c r="A90" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4582,7 +4579,7 @@
       <c r="A91" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4590,7 +4587,7 @@
       <c r="A92" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4598,7 +4595,7 @@
       <c r="A93" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4606,7 +4603,7 @@
       <c r="A94" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4614,7 +4611,7 @@
       <c r="A95" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4622,7 +4619,7 @@
       <c r="A96" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4630,7 +4627,7 @@
       <c r="A97" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4638,7 +4635,7 @@
       <c r="A98" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4646,7 +4643,7 @@
       <c r="A99" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4654,7 +4651,7 @@
       <c r="A100" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4662,7 +4659,7 @@
       <c r="A101" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4670,7 +4667,7 @@
       <c r="A102" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B102" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4678,7 +4675,7 @@
       <c r="A103" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4686,7 +4683,7 @@
       <c r="A104" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B104" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4694,7 +4691,7 @@
       <c r="A105" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="B105" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4702,7 +4699,7 @@
       <c r="A106" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4710,7 +4707,7 @@
       <c r="A107" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4718,7 +4715,7 @@
       <c r="A108" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4726,7 +4723,7 @@
       <c r="A109" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4734,7 +4731,7 @@
       <c r="A110" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="B110" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4742,7 +4739,7 @@
       <c r="A111" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="7" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4750,12 +4747,12 @@
       <c r="A112" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B112" s="19" t="s">
+      <c r="B112" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="7" t="s">
         <v>102</v>
       </c>
     </row>
